--- a/steps.xlsx
+++ b/steps.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repository\StoreLocator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E986CA36-1655-4BBF-A177-9F6B0A98F2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A8770D-C152-4D34-AD0B-6BE68DC0EF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="PROGETTO" sheetId="1" r:id="rId1"/>
+    <sheet name="Project" sheetId="1" r:id="rId1"/>
+    <sheet name="Database" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,13 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
-  <si>
-    <t>Installazione angular</t>
-  </si>
-  <si>
-    <t>installazione database (node?)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>dashboard inserimento store</t>
   </si>
@@ -88,6 +84,27 @@
   </si>
   <si>
     <t>API?</t>
+  </si>
+  <si>
+    <t>installazione database (node? Mockup?)</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Tel</t>
+  </si>
+  <si>
+    <t>Installazione angular - Versione di partenza 16.2</t>
   </si>
 </sst>
 </file>
@@ -425,7 +442,7 @@
   <dimension ref="A2:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -436,119 +453,154 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9B8E77-BCAD-4EC1-B422-126C9A934D52}">
+  <dimension ref="A3:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
